--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H2">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I2">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J2">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q2">
-        <v>28.17197647011555</v>
+        <v>0.024021792832</v>
       </c>
       <c r="R2">
-        <v>253.54778823104</v>
+        <v>0.216196135488</v>
       </c>
       <c r="S2">
-        <v>0.02383273236266684</v>
+        <v>0.008275840567385086</v>
       </c>
       <c r="T2">
-        <v>0.02383273236266684</v>
+        <v>0.008275840567385086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H3">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P3">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q3">
-        <v>0.05715131490666667</v>
+        <v>0.1390519242973333</v>
       </c>
       <c r="R3">
-        <v>0.51436183416</v>
+        <v>1.251467318676</v>
       </c>
       <c r="S3">
-        <v>4.834847117631046E-05</v>
+        <v>0.04790531514949464</v>
       </c>
       <c r="T3">
-        <v>4.834847117631048E-05</v>
+        <v>0.04790531514949464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>38.635086</v>
       </c>
       <c r="I4">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J4">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q4">
-        <v>1081.247251959877</v>
+        <v>0.378932923488</v>
       </c>
       <c r="R4">
-        <v>9731.225267638896</v>
+        <v>3.410396311392</v>
       </c>
       <c r="S4">
-        <v>0.9147060164970759</v>
+        <v>0.1305476440685266</v>
       </c>
       <c r="T4">
-        <v>0.9147060164970762</v>
+        <v>0.1305476440685266</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.635086</v>
       </c>
       <c r="I5">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J5">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>0.510969</v>
       </c>
       <c r="O5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q5">
         <v>2.193481250926</v>
@@ -756,10 +756,10 @@
         <v>19.741331258334</v>
       </c>
       <c r="S5">
-        <v>0.001855625985322733</v>
+        <v>0.7556846921113262</v>
       </c>
       <c r="T5">
-        <v>0.001855625985322734</v>
+        <v>0.7556846921113262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H6">
         <v>2.51047</v>
       </c>
       <c r="I6">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J6">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N6">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q6">
-        <v>70.25838608532443</v>
+        <v>0.02462268976</v>
       </c>
       <c r="R6">
-        <v>632.3254747679199</v>
+        <v>0.22160420784</v>
       </c>
       <c r="S6">
-        <v>0.05943669992698901</v>
+        <v>0.008482857887380244</v>
       </c>
       <c r="T6">
-        <v>0.05943669992698902</v>
+        <v>0.008482857887380244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H7">
         <v>2.51047</v>
       </c>
       <c r="I7">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J7">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.510969</v>
       </c>
       <c r="O7">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P7">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q7">
         <v>0.1425302606033333</v>
@@ -880,10 +880,10 @@
         <v>1.28277234543</v>
       </c>
       <c r="S7">
-        <v>0.0001205767567690456</v>
+        <v>0.04910365021588721</v>
       </c>
       <c r="T7">
-        <v>0.0001205767567690457</v>
+        <v>0.04910365021588721</v>
       </c>
     </row>
   </sheetData>
